--- a/0000_Docs/0004_Business/Budget.xlsx
+++ b/0000_Docs/0004_Business/Budget.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Nextcloud\LoRaSnow\LoRaSnow_business\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\LoRaSnow\0000_Docs\0004_Business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD8748C-CAEF-4D49-88B3-262C1BBB67BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EBC6BD-9CE8-467A-93D2-4FD802C82185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -710,15 +710,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
@@ -736,15 +727,6 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -763,6 +745,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="H1" s="2">
         <f>E1*E3*(B1*B2)</f>
-        <v>12780</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1110,7 +1110,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="1">
-        <v>106.5</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H2" s="2">
         <f>H1*E4</f>
-        <v>204480</v>
+        <v>211200</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1148,7 +1148,7 @@
         <v>39</v>
       </c>
       <c r="B4" s="1">
-        <v>45.8</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
@@ -1180,7 +1180,7 @@
         <v>40</v>
       </c>
       <c r="B6" s="1">
-        <v>53.4</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
@@ -1248,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFCD8FF-7FD6-4D3A-BBD5-E5C253E3C460}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1264,55 +1264,55 @@
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="48">
+      <c r="B1" s="42">
         <v>2021</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49">
+      <c r="C1" s="42"/>
+      <c r="D1" s="43">
         <v>2022</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44">
         <v>2023</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="51"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="41" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1397,262 +1397,262 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="48"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="27">
         <f>Prices!$B$7*B3</f>
         <v>0</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="27">
         <f>Prices!$B$7*C3</f>
         <v>0</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="27">
         <f>Prices!$B$7*D3</f>
         <v>0</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="27">
         <f>Prices!$B$7*E3</f>
         <v>0</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="27">
         <f>Prices!$B$7*F3</f>
         <v>32000</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="27">
         <f>Prices!$B$7*G3</f>
         <v>192000</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="27">
         <f>Prices!$B$7*H3</f>
         <v>0</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="27">
         <f>Prices!$B$7*I3</f>
         <v>0</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="27">
         <f>Prices!$B$7*J3</f>
         <v>320000</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="28">
         <f>Prices!$B$7*K3</f>
         <v>320000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="35">
         <f>B3*Prices!$B$9</f>
         <v>0</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="35">
         <f>C3*Prices!$B$9</f>
         <v>0</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="35">
         <f>D3*Prices!$B$9</f>
         <v>0</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="35">
         <f>E3*Prices!$B$9</f>
         <v>0</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="35">
         <f>F3*Prices!$B$9</f>
         <v>1500</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="35">
         <f>G3*Prices!$B$9</f>
         <v>9000</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="35">
         <f>H3*Prices!$B$9</f>
         <v>0</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="35">
         <f>I3*Prices!$B$9</f>
         <v>0</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="35">
         <f>J3*Prices!$B$9</f>
         <v>15000</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="36">
         <f>K3*Prices!$B$9</f>
         <v>15000</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="41">
-        <v>0</v>
-      </c>
-      <c r="C8" s="41">
-        <v>0</v>
-      </c>
-      <c r="D8" s="41">
-        <v>0</v>
-      </c>
-      <c r="E8" s="41">
-        <v>0</v>
-      </c>
-      <c r="F8" s="41">
+      <c r="B8" s="35">
+        <v>0</v>
+      </c>
+      <c r="C8" s="35">
+        <v>0</v>
+      </c>
+      <c r="D8" s="35">
+        <v>0</v>
+      </c>
+      <c r="E8" s="35">
+        <v>0</v>
+      </c>
+      <c r="F8" s="35">
         <f>F4*Prices!$B$10</f>
         <v>2500</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="35">
         <f>G4*Prices!$B$10</f>
         <v>17500</v>
       </c>
-      <c r="H8" s="41">
-        <v>0</v>
-      </c>
-      <c r="I8" s="41">
-        <v>0</v>
-      </c>
-      <c r="J8" s="41">
+      <c r="H8" s="35">
+        <v>0</v>
+      </c>
+      <c r="I8" s="35">
+        <v>0</v>
+      </c>
+      <c r="J8" s="35">
         <f>J4*Prices!$B$10</f>
         <v>42500</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="34">
-        <f>SUM(B6:B6)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="34">
-        <f>SUM(C6:C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="34">
-        <f>SUM(D6:D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="34">
-        <f>SUM(E6:E6)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="34">
-        <f>SUM(F6:F6)</f>
+      <c r="B10" s="31">
+        <f t="shared" ref="B10:K10" si="1">SUM(B6:B6)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="31">
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
-      <c r="G10" s="34">
-        <f>SUM(G6:G6)</f>
+      <c r="G10" s="31">
+        <f t="shared" si="1"/>
         <v>192000</v>
       </c>
-      <c r="H10" s="34">
-        <f>SUM(H6:H6)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="34">
-        <f>SUM(I6:I6)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="34">
-        <f>SUM(J6:J6)</f>
+      <c r="H10" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="31">
+        <f t="shared" si="1"/>
         <v>320000</v>
       </c>
-      <c r="K10" s="35">
-        <f>SUM(K6:K6)</f>
+      <c r="K10" s="32">
+        <f t="shared" si="1"/>
         <v>320000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <f>Prices!$B$8*B3</f>
         <v>0</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <f>Prices!$B$8*C3</f>
         <v>0</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <f>Prices!$B$8*D3</f>
         <v>0</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="17">
         <f>Prices!$B$8*E3</f>
         <v>0</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="17">
         <f>Prices!$B$8*F3</f>
         <v>1750</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="17">
         <f>Prices!$B$8*G3</f>
         <v>10500</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="17">
         <f>Prices!$B$8*H3</f>
         <v>0</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="17">
         <f>Prices!$B$8*I3</f>
         <v>0</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="17">
         <f>Prices!$B$8*J3</f>
         <v>17500</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="18">
         <f>Prices!$B$8*K3</f>
         <v>17500</v>
       </c>
@@ -1661,174 +1661,172 @@
       <c r="A13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="19">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)</f>
-        <v>40896</v>
-      </c>
-      <c r="C13" s="22">
+        <v>42240</v>
+      </c>
+      <c r="C13" s="19">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)</f>
-        <v>40896</v>
-      </c>
-      <c r="D13" s="22">
+        <v>42240</v>
+      </c>
+      <c r="D13" s="19">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)</f>
-        <v>40896</v>
-      </c>
-      <c r="E13" s="22">
+        <v>42240</v>
+      </c>
+      <c r="E13" s="19">
         <f>Prices!$E$7*(Prices!$B$1*Prices!$B$2)</f>
-        <v>102240</v>
-      </c>
-      <c r="F13" s="22">
+        <v>105600</v>
+      </c>
+      <c r="F13" s="19">
         <f>Prices!$E$7*(Prices!$B$1*Prices!$B$2)</f>
-        <v>102240</v>
-      </c>
-      <c r="G13" s="22">
+        <v>105600</v>
+      </c>
+      <c r="G13" s="19">
         <f>Prices!$E$7*(Prices!$B$1*Prices!$B$2)</f>
-        <v>102240</v>
-      </c>
-      <c r="H13" s="22">
+        <v>105600</v>
+      </c>
+      <c r="H13" s="19">
         <f>Prices!$E$8*(Prices!$B$1*Prices!$B$2)</f>
-        <v>61344</v>
-      </c>
-      <c r="I13" s="22">
+        <v>63360</v>
+      </c>
+      <c r="I13" s="19">
         <f>Prices!$E$8*(Prices!$B$1*Prices!$B$2)</f>
-        <v>61344</v>
-      </c>
-      <c r="J13" s="22">
-        <f>Prices!$E$8*(Prices!$B$1*Prices!$B$2)</f>
-        <v>61344</v>
-      </c>
-      <c r="K13" s="23">
-        <f>Prices!$E$8*(Prices!$B$1*Prices!$B$2)</f>
-        <v>61344</v>
+        <v>63360</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0</v>
+      </c>
+      <c r="K13" s="20">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="22">
-        <v>0</v>
-      </c>
-      <c r="C14" s="22">
-        <v>0</v>
-      </c>
-      <c r="D14" s="22">
-        <v>0</v>
-      </c>
-      <c r="E14" s="22">
-        <v>0</v>
-      </c>
-      <c r="F14" s="22">
+      <c r="B14" s="19">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19">
         <f>Prices!$E$7*(Prices!$B$3*Prices!$B$4)</f>
-        <v>14656</v>
-      </c>
-      <c r="G14" s="22">
+        <v>19200</v>
+      </c>
+      <c r="G14" s="19">
         <f>Prices!$E$7*(Prices!$B$3*Prices!$B$4)</f>
-        <v>14656</v>
-      </c>
-      <c r="H14" s="22">
+        <v>19200</v>
+      </c>
+      <c r="H14" s="19">
         <f>Prices!$E$7*(Prices!$B$3*Prices!$B$4)</f>
-        <v>14656</v>
-      </c>
-      <c r="I14" s="22">
+        <v>19200</v>
+      </c>
+      <c r="I14" s="19">
         <f>Prices!$E$7*(Prices!$B$3*Prices!$B$4)</f>
-        <v>14656</v>
-      </c>
-      <c r="J14" s="22">
+        <v>19200</v>
+      </c>
+      <c r="J14" s="19">
         <f>Prices!$E$7*(Prices!$B$3*Prices!$B$4)</f>
-        <v>14656</v>
-      </c>
-      <c r="K14" s="23">
+        <v>19200</v>
+      </c>
+      <c r="K14" s="20">
         <f>Prices!$E$7*(Prices!$B$3*Prices!$B$4)</f>
-        <v>14656</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="22">
-        <v>0</v>
-      </c>
-      <c r="C15" s="22">
-        <v>0</v>
-      </c>
-      <c r="D15" s="22">
-        <v>0</v>
-      </c>
-      <c r="E15" s="22">
-        <v>0</v>
-      </c>
-      <c r="F15" s="22">
+      <c r="B15" s="19">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19">
         <f>Prices!$E$6*(Prices!$B$5*Prices!$B$6)</f>
-        <v>34176</v>
-      </c>
-      <c r="G15" s="22">
+        <v>51200</v>
+      </c>
+      <c r="G15" s="19">
         <f>Prices!$E$6*(Prices!$B$5*Prices!$B$6)</f>
-        <v>34176</v>
-      </c>
-      <c r="H15" s="22">
+        <v>51200</v>
+      </c>
+      <c r="H15" s="19">
         <f>Prices!$E$6*(Prices!$B$5*Prices!$B$6)</f>
-        <v>34176</v>
-      </c>
-      <c r="I15" s="22">
+        <v>51200</v>
+      </c>
+      <c r="I15" s="19">
         <f>Prices!$E$6*(Prices!$B$5*Prices!$B$6)</f>
-        <v>34176</v>
-      </c>
-      <c r="J15" s="22">
+        <v>51200</v>
+      </c>
+      <c r="J15" s="19">
         <f>Prices!$E$6*(Prices!$B$5*Prices!$B$6)</f>
-        <v>34176</v>
-      </c>
-      <c r="K15" s="23">
+        <v>51200</v>
+      </c>
+      <c r="K15" s="20">
         <f>Prices!$E$6*(Prices!$B$5*Prices!$B$6)</f>
-        <v>34176</v>
+        <v>51200</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="16"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="24">
-        <v>0</v>
-      </c>
-      <c r="C17" s="24">
-        <v>0</v>
-      </c>
-      <c r="D17" s="24">
-        <v>0</v>
-      </c>
-      <c r="E17" s="24">
-        <v>0</v>
-      </c>
-      <c r="F17" s="24">
+      <c r="B17" s="21">
+        <v>0</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21">
         <v>2000</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="21">
         <v>300</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="21">
         <v>300</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="21">
         <v>300</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="21">
         <v>1000</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="22">
         <v>300</v>
       </c>
     </row>
@@ -1836,93 +1834,93 @@
       <c r="A18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="24">
-        <v>0</v>
-      </c>
-      <c r="C18" s="24">
-        <v>0</v>
-      </c>
-      <c r="D18" s="24">
-        <v>0</v>
-      </c>
-      <c r="E18" s="24">
-        <v>0</v>
-      </c>
-      <c r="F18" s="24">
+      <c r="B18" s="21">
+        <v>0</v>
+      </c>
+      <c r="C18" s="21">
+        <v>0</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0</v>
+      </c>
+      <c r="E18" s="21">
+        <v>0</v>
+      </c>
+      <c r="F18" s="21">
         <v>2000</v>
       </c>
-      <c r="G18" s="24">
-        <v>0</v>
-      </c>
-      <c r="H18" s="24">
-        <v>0</v>
-      </c>
-      <c r="I18" s="24">
-        <v>0</v>
-      </c>
-      <c r="J18" s="24">
+      <c r="G18" s="21">
+        <v>0</v>
+      </c>
+      <c r="H18" s="21">
+        <v>0</v>
+      </c>
+      <c r="I18" s="21">
+        <v>0</v>
+      </c>
+      <c r="J18" s="21">
         <v>2000</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="28">
-        <f t="shared" ref="B20:K20" si="1">SUM(B12:B19)</f>
-        <v>40896</v>
-      </c>
-      <c r="C20" s="28">
-        <f t="shared" si="1"/>
-        <v>40896</v>
-      </c>
-      <c r="D20" s="28">
-        <f t="shared" si="1"/>
-        <v>40896</v>
-      </c>
-      <c r="E20" s="28">
-        <f t="shared" si="1"/>
-        <v>102240</v>
-      </c>
-      <c r="F20" s="28">
-        <f t="shared" si="1"/>
-        <v>156822</v>
-      </c>
-      <c r="G20" s="28">
-        <f t="shared" si="1"/>
-        <v>161872</v>
-      </c>
-      <c r="H20" s="28">
-        <f t="shared" si="1"/>
-        <v>110476</v>
-      </c>
-      <c r="I20" s="28">
-        <f t="shared" si="1"/>
-        <v>110476</v>
-      </c>
-      <c r="J20" s="28">
-        <f t="shared" si="1"/>
-        <v>130676</v>
-      </c>
-      <c r="K20" s="29">
-        <f t="shared" si="1"/>
-        <v>127976</v>
+      <c r="B20" s="25">
+        <f t="shared" ref="B20:K20" si="2">SUM(B12:B19)</f>
+        <v>42240</v>
+      </c>
+      <c r="C20" s="25">
+        <f t="shared" si="2"/>
+        <v>42240</v>
+      </c>
+      <c r="D20" s="25">
+        <f t="shared" si="2"/>
+        <v>42240</v>
+      </c>
+      <c r="E20" s="25">
+        <f t="shared" si="2"/>
+        <v>105600</v>
+      </c>
+      <c r="F20" s="25">
+        <f t="shared" si="2"/>
+        <v>181750</v>
+      </c>
+      <c r="G20" s="25">
+        <f t="shared" si="2"/>
+        <v>186800</v>
+      </c>
+      <c r="H20" s="25">
+        <f t="shared" si="2"/>
+        <v>134060</v>
+      </c>
+      <c r="I20" s="25">
+        <f t="shared" si="2"/>
+        <v>134060</v>
+      </c>
+      <c r="J20" s="25">
+        <f t="shared" si="2"/>
+        <v>90900</v>
+      </c>
+      <c r="K20" s="26">
+        <f t="shared" si="2"/>
+        <v>88200</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1944,43 +1942,49 @@
       </c>
       <c r="B22" s="9">
         <f>B10-B20</f>
-        <v>-40896</v>
+        <v>-42240</v>
       </c>
       <c r="C22" s="9">
-        <f t="shared" ref="C22:K22" si="2">B22+C10-C20</f>
-        <v>-81792</v>
+        <f t="shared" ref="C22:K22" si="3">B22+C10-C20</f>
+        <v>-84480</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" si="2"/>
-        <v>-122688</v>
+        <f t="shared" si="3"/>
+        <v>-126720</v>
       </c>
       <c r="E22" s="9">
-        <f t="shared" si="2"/>
-        <v>-224928</v>
+        <f t="shared" si="3"/>
+        <v>-232320</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="2"/>
-        <v>-349750</v>
+        <f t="shared" si="3"/>
+        <v>-382070</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" si="2"/>
-        <v>-319622</v>
+        <f t="shared" si="3"/>
+        <v>-376870</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="2"/>
-        <v>-430098</v>
+        <f t="shared" si="3"/>
+        <v>-510930</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="2"/>
-        <v>-540574</v>
+        <f t="shared" si="3"/>
+        <v>-644990</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="2"/>
-        <v>-351250</v>
+        <f t="shared" si="3"/>
+        <v>-415890</v>
       </c>
       <c r="K22" s="10">
-        <f t="shared" si="2"/>
-        <v>-159226</v>
+        <f t="shared" si="3"/>
+        <v>-184090</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B24" s="2">
+        <f>SUM(B20:K20)</f>
+        <v>1048090</v>
       </c>
     </row>
   </sheetData>

--- a/0000_Docs/0004_Business/Budget.xlsx
+++ b/0000_Docs/0004_Business/Budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\LoRaSnow\0000_Docs\0004_Business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EBC6BD-9CE8-467A-93D2-4FD802C82185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F63C71E-58C3-4572-AF4B-75C7F87B0EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1212,7 +1212,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" t="s">
@@ -1243,15 +1243,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFCD8FF-7FD6-4D3A-BBD5-E5C253E3C460}">
-  <dimension ref="A1:K24"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1634,11 +1638,11 @@
       </c>
       <c r="F12" s="17">
         <f>Prices!$B$8*F3</f>
-        <v>1750</v>
+        <v>1250</v>
       </c>
       <c r="G12" s="17">
         <f>Prices!$B$8*G3</f>
-        <v>10500</v>
+        <v>7500</v>
       </c>
       <c r="H12" s="17">
         <f>Prices!$B$8*H3</f>
@@ -1650,11 +1654,11 @@
       </c>
       <c r="J12" s="17">
         <f>Prices!$B$8*J3</f>
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="K12" s="18">
         <f>Prices!$B$8*K3</f>
-        <v>17500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -1690,8 +1694,7 @@
         <v>63360</v>
       </c>
       <c r="I13" s="19">
-        <f>Prices!$E$8*(Prices!$B$1*Prices!$B$2)</f>
-        <v>63360</v>
+        <v>0</v>
       </c>
       <c r="J13" s="19">
         <v>0</v>
@@ -1900,11 +1903,11 @@
       </c>
       <c r="F20" s="25">
         <f t="shared" si="2"/>
-        <v>181750</v>
+        <v>181250</v>
       </c>
       <c r="G20" s="25">
         <f t="shared" si="2"/>
-        <v>186800</v>
+        <v>183800</v>
       </c>
       <c r="H20" s="25">
         <f t="shared" si="2"/>
@@ -1912,15 +1915,15 @@
       </c>
       <c r="I20" s="25">
         <f t="shared" si="2"/>
-        <v>134060</v>
+        <v>70700</v>
       </c>
       <c r="J20" s="25">
         <f t="shared" si="2"/>
-        <v>90900</v>
+        <v>85900</v>
       </c>
       <c r="K20" s="26">
         <f t="shared" si="2"/>
-        <v>88200</v>
+        <v>83200</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1958,33 +1961,36 @@
       </c>
       <c r="F22" s="9">
         <f t="shared" si="3"/>
-        <v>-382070</v>
+        <v>-381570</v>
       </c>
       <c r="G22" s="9">
         <f t="shared" si="3"/>
-        <v>-376870</v>
+        <v>-373370</v>
       </c>
       <c r="H22" s="9">
         <f t="shared" si="3"/>
-        <v>-510930</v>
+        <v>-507430</v>
       </c>
       <c r="I22" s="9">
         <f t="shared" si="3"/>
-        <v>-644990</v>
+        <v>-578130</v>
       </c>
       <c r="J22" s="9">
         <f t="shared" si="3"/>
-        <v>-415890</v>
+        <v>-344030</v>
       </c>
       <c r="K22" s="10">
         <f t="shared" si="3"/>
-        <v>-184090</v>
+        <v>-107230</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B24" s="2">
-        <f>SUM(B20:K20)</f>
-        <v>1048090</v>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B25" s="2">
+        <f>SUM(B20:H20)</f>
+        <v>731430</v>
       </c>
     </row>
   </sheetData>
@@ -2005,6 +2011,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/0000_Docs/0004_Business/Budget.xlsx
+++ b/0000_Docs/0004_Business/Budget.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samy Francelet\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\LoRaSnow\0000_Docs\0004_Business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B09210-D854-4DAE-BE2F-8D9444EE45F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF0FF25-F789-4826-B76E-F2B0B96B7168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prices" sheetId="1" r:id="rId1"/>
@@ -37,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="76">
   <si>
     <t>Engineers</t>
   </si>
   <si>
-    <t>Unit manufacturing costs</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -183,18 +180,6 @@
     <t>Plaque</t>
   </si>
   <si>
-    <t>vis</t>
-  </si>
-  <si>
-    <t>grenouillère</t>
-  </si>
-  <si>
-    <t>tube</t>
-  </si>
-  <si>
-    <t>collier</t>
-  </si>
-  <si>
     <t>Fourniture</t>
   </si>
   <si>
@@ -213,9 +198,6 @@
     <t>PCB with components</t>
   </si>
   <si>
-    <t xml:space="preserve">Total : </t>
-  </si>
-  <si>
     <t>prix unitaire</t>
   </si>
   <si>
@@ -262,6 +244,27 @@
   </si>
   <si>
     <t>Units maintenance</t>
+  </si>
+  <si>
+    <t>Vis</t>
+  </si>
+  <si>
+    <t>Grenouillère</t>
+  </si>
+  <si>
+    <t>Tube</t>
+  </si>
+  <si>
+    <t>Collier</t>
+  </si>
+  <si>
+    <t>Vitre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total unit price: </t>
+  </si>
+  <si>
+    <t>Unit manufacturing costs [CHF/year]</t>
   </si>
 </sst>
 </file>
@@ -386,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="69">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -1290,6 +1293,37 @@
       </right>
       <top/>
       <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1300,7 +1334,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1361,24 +1395,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1391,18 +1407,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
@@ -1419,12 +1423,6 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1432,15 +1430,6 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1472,53 +1461,62 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1917,23 +1915,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
     <col min="5" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1945,98 +1943,98 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1">
         <v>110</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
         <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3" s="46" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L3" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
         <v>60</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <f>4*4</f>
         <v>16</v>
       </c>
-      <c r="G4" s="56" t="s">
-        <v>34</v>
+      <c r="G4" s="50" t="s">
+        <v>33</v>
       </c>
       <c r="H4" s="44">
         <v>10000</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J4" s="47">
         <f>1.6*1000</f>
@@ -2046,33 +2044,33 @@
         <v>3.2</v>
       </c>
       <c r="L4" s="45">
-        <f>J4*K4</f>
+        <f t="shared" ref="L4:L10" si="0">J4*K4</f>
         <v>5120</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <f>E1*E2*E4</f>
         <v>128</v>
       </c>
-      <c r="G5" s="56" t="s">
-        <v>35</v>
+      <c r="G5" s="50" t="s">
+        <v>34</v>
       </c>
       <c r="H5" s="44">
         <v>10000</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J5" s="47">
         <v>1000</v>
@@ -2081,33 +2079,33 @@
         <v>2</v>
       </c>
       <c r="L5" s="45">
-        <f>J5*K5</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>80</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <f>E1*E3*E4</f>
         <v>640</v>
       </c>
-      <c r="G6" s="56" t="s">
-        <v>36</v>
+      <c r="G6" s="50" t="s">
+        <v>35</v>
       </c>
       <c r="H6" s="44">
         <v>8000</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="J6" s="47">
         <v>1000</v>
@@ -2116,33 +2114,33 @@
         <v>5</v>
       </c>
       <c r="L6" s="45">
-        <f>J6*K6</f>
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1">
         <v>3000</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <f>E6/2</f>
         <v>320</v>
       </c>
-      <c r="G7" s="56" t="s">
-        <v>37</v>
+      <c r="G7" s="50" t="s">
+        <v>36</v>
       </c>
       <c r="H7" s="44">
         <v>5000</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="J7" s="47">
         <v>1000</v>
@@ -2151,34 +2149,34 @@
         <v>10</v>
       </c>
       <c r="L7" s="45">
-        <f>J7*K7</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1">
         <f>B22</f>
-        <v>183.44000000000003</v>
+        <v>191.44000000000003</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <f>0.3*E6</f>
         <v>192</v>
       </c>
-      <c r="G8" s="56" t="s">
-        <v>38</v>
+      <c r="G8" s="50" t="s">
+        <v>37</v>
       </c>
       <c r="H8" s="44">
         <v>10000</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="J8" s="48">
         <v>1000</v>
@@ -2187,26 +2185,26 @@
         <v>2</v>
       </c>
       <c r="L8" s="45">
-        <f>J8*K8</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1">
         <v>120</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="G9" s="56" t="s">
-        <v>39</v>
+      <c r="G9" s="50" t="s">
+        <v>38</v>
       </c>
       <c r="H9" s="44">
         <v>7000</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="J9" s="47">
         <v>1000</v>
@@ -2215,78 +2213,93 @@
         <v>15</v>
       </c>
       <c r="L9" s="45">
-        <f>J9*K9</f>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2">
         <f>B8+B9</f>
-        <v>303.44000000000005</v>
+        <v>311.44000000000005</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="G10" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="58">
+      <c r="G10" s="127"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="128">
+        <v>1000</v>
+      </c>
+      <c r="K10" s="130">
+        <v>8</v>
+      </c>
+      <c r="L10" s="129">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="52">
         <f>SUM(H4:H9)</f>
         <v>50000</v>
       </c>
-      <c r="I10" s="61"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="60">
-        <f>SUM(L4:L9)</f>
-        <v>39120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G11" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="62">
-        <f>(H10+L10)/1000</f>
-        <v>89.12</v>
+      <c r="I11" s="55"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="54">
+        <f>SUM(L4:L10)</f>
+        <v>47120</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1">
         <v>500</v>
       </c>
+      <c r="G12" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="56">
+        <f>(H11+L11)/1000</f>
+        <v>97.12</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
-        <v>62</v>
+      <c r="A15" s="57" t="s">
+        <v>56</v>
       </c>
       <c r="B15" s="1">
-        <f>H11</f>
-        <v>89.12</v>
+        <f>H12</f>
+        <v>97.12</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="64"/>
+      <c r="A17" s="112" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="112"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1">
         <v>9.8000000000000007</v>
@@ -2294,33 +2307,33 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1">
         <v>70</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1">
         <v>14.52</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B22" s="2">
         <f>SUM(B15:B20)</f>
-        <v>183.44000000000003</v>
+        <v>191.44000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -2344,7 +2357,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:O1048576"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2359,81 +2372,81 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="50">
+        <v>1</v>
+      </c>
+      <c r="B1" s="118">
         <v>2021</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51">
+      <c r="C1" s="118"/>
+      <c r="D1" s="119">
         <v>2022</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="52">
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="120">
         <v>2023</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="65">
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="113">
         <v>2024</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="66"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="114"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="E2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="37" t="s">
+      <c r="H2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="J2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="K2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="37" t="s">
+      <c r="L2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="N2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="O2" s="38" t="s">
         <v>6</v>
-      </c>
-      <c r="K2" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="38" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2462,7 +2475,7 @@
       <c r="J3" s="4">
         <v>30</v>
       </c>
-      <c r="K3" s="69">
+      <c r="K3" s="59">
         <v>0</v>
       </c>
       <c r="L3" s="4">
@@ -2480,7 +2493,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="11">
         <f>B3</f>
@@ -2518,7 +2531,7 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="K4" s="70">
+      <c r="K4" s="60">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
@@ -2541,26 +2554,26 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
-      <c r="B5" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="55"/>
+      <c r="B5" s="115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="117"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B6" s="27">
         <v>0</v>
@@ -2588,7 +2601,7 @@
       <c r="J6" s="27">
         <v>0</v>
       </c>
-      <c r="K6" s="71">
+      <c r="K6" s="61">
         <f>Prices!$B$7*K4</f>
         <v>195000</v>
       </c>
@@ -2617,7 +2630,7 @@
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
-      <c r="K7" s="72"/>
+      <c r="K7" s="62"/>
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
@@ -2625,258 +2638,258 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="31">
-        <f>SUM(B6:B6)</f>
+        <f t="shared" ref="B8:O8" si="5">SUM(B6:B6)</f>
         <v>0</v>
       </c>
       <c r="C8" s="31">
-        <f>SUM(C6:C6)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D8" s="31">
-        <f>SUM(D6:D6)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E8" s="31">
-        <f>SUM(E6:E6)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F8" s="31">
-        <f>SUM(F6:F6)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G8" s="31">
-        <f>SUM(G6:G6)</f>
+        <f t="shared" si="5"/>
         <v>105000</v>
       </c>
       <c r="H8" s="31">
-        <f>SUM(H6:H6)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I8" s="31">
-        <f>SUM(I6:I6)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J8" s="31">
-        <f>SUM(J6:J6)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="81">
-        <f>SUM(K6:K6)</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="71">
+        <f t="shared" si="5"/>
         <v>195000</v>
       </c>
       <c r="L8" s="31">
-        <f>SUM(L6:L6)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M8" s="31">
-        <f>SUM(M6:M6)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N8" s="31">
-        <f>SUM(N6:N6)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O8" s="32">
-        <f>SUM(O6:O6)</f>
+        <f t="shared" si="5"/>
         <v>285000</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="55"/>
+      <c r="B9" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="117"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="118">
+        <v>65</v>
+      </c>
+      <c r="B10" s="103">
         <f>Prices!$B$10*B3</f>
         <v>0</v>
       </c>
-      <c r="C10" s="118">
+      <c r="C10" s="103">
         <f>Prices!$B$10*C3</f>
         <v>0</v>
       </c>
-      <c r="D10" s="118">
+      <c r="D10" s="103">
         <f>Prices!$B$10*D3</f>
         <v>0</v>
       </c>
-      <c r="E10" s="118">
+      <c r="E10" s="103">
         <f>Prices!$B$10*E3</f>
         <v>0</v>
       </c>
-      <c r="F10" s="118">
+      <c r="F10" s="103">
         <f>Prices!$B$10*F3</f>
-        <v>9103.2000000000007</v>
-      </c>
-      <c r="G10" s="118">
+        <v>9343.2000000000007</v>
+      </c>
+      <c r="G10" s="103">
         <f>Prices!$B$10*G3</f>
-        <v>1517.2000000000003</v>
-      </c>
-      <c r="H10" s="118">
+        <v>1557.2000000000003</v>
+      </c>
+      <c r="H10" s="103">
         <f>Prices!$B$10*H3</f>
         <v>0</v>
       </c>
-      <c r="I10" s="118">
+      <c r="I10" s="103">
         <f>Prices!$B$10*I3</f>
         <v>0</v>
       </c>
-      <c r="J10" s="118">
+      <c r="J10" s="103">
         <f>Prices!$B$10*J3</f>
-        <v>9103.2000000000007</v>
-      </c>
-      <c r="K10" s="119">
+        <v>9343.2000000000007</v>
+      </c>
+      <c r="K10" s="104">
         <f>Prices!$B$10*K3</f>
         <v>0</v>
       </c>
-      <c r="L10" s="120">
+      <c r="L10" s="105">
         <f>Prices!$B$10*L3</f>
         <v>0</v>
       </c>
-      <c r="M10" s="118">
+      <c r="M10" s="103">
         <f>Prices!$B$10*M3</f>
         <v>0</v>
       </c>
-      <c r="N10" s="118">
+      <c r="N10" s="103">
         <f>Prices!$B$10*N3</f>
-        <v>9103.2000000000007</v>
-      </c>
-      <c r="O10" s="121">
+        <v>9343.2000000000007</v>
+      </c>
+      <c r="O10" s="106">
         <f>Prices!$B$10*O3</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="113" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="122">
-        <v>0</v>
-      </c>
-      <c r="C11" s="122">
-        <v>0</v>
-      </c>
-      <c r="D11" s="122">
-        <v>0</v>
-      </c>
-      <c r="E11" s="122">
-        <v>0</v>
-      </c>
-      <c r="F11" s="122">
-        <v>0</v>
-      </c>
-      <c r="G11" s="122">
-        <v>0</v>
-      </c>
-      <c r="H11" s="122">
-        <v>0</v>
-      </c>
-      <c r="I11" s="122">
-        <v>0</v>
-      </c>
-      <c r="J11" s="122">
-        <v>0</v>
-      </c>
-      <c r="K11" s="122">
+      <c r="A11" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="107">
+        <v>0</v>
+      </c>
+      <c r="C11" s="107">
+        <v>0</v>
+      </c>
+      <c r="D11" s="107">
+        <v>0</v>
+      </c>
+      <c r="E11" s="107">
+        <v>0</v>
+      </c>
+      <c r="F11" s="107">
+        <v>0</v>
+      </c>
+      <c r="G11" s="107">
+        <v>0</v>
+      </c>
+      <c r="H11" s="107">
+        <v>0</v>
+      </c>
+      <c r="I11" s="107">
+        <v>0</v>
+      </c>
+      <c r="J11" s="107">
+        <v>0</v>
+      </c>
+      <c r="K11" s="107">
         <f>Prices!$B$8*'Base case'!K4</f>
-        <v>11923.600000000002</v>
-      </c>
-      <c r="L11" s="122">
-        <v>0</v>
-      </c>
-      <c r="M11" s="122">
-        <v>0</v>
-      </c>
-      <c r="N11" s="122">
-        <v>0</v>
-      </c>
-      <c r="O11" s="123">
+        <v>12443.600000000002</v>
+      </c>
+      <c r="L11" s="107">
+        <v>0</v>
+      </c>
+      <c r="M11" s="107">
+        <v>0</v>
+      </c>
+      <c r="N11" s="107">
+        <v>0</v>
+      </c>
+      <c r="O11" s="108">
         <f>Prices!$B$8*'Base case'!O4</f>
-        <v>17426.800000000003</v>
+        <v>18186.800000000003</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="114">
+        <v>19</v>
+      </c>
+      <c r="B12" s="99">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)</f>
         <v>42240</v>
       </c>
-      <c r="C12" s="114">
+      <c r="C12" s="99">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)</f>
         <v>42240</v>
       </c>
-      <c r="D12" s="114">
+      <c r="D12" s="99">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)</f>
         <v>42240</v>
       </c>
-      <c r="E12" s="114">
+      <c r="E12" s="99">
         <f>Prices!$E$7*(Prices!$B$1*Prices!$B$2)</f>
         <v>105600</v>
       </c>
-      <c r="F12" s="114">
+      <c r="F12" s="99">
         <f>Prices!$E$7*(Prices!$B$1*Prices!$B$2)</f>
         <v>105600</v>
       </c>
-      <c r="G12" s="114">
+      <c r="G12" s="99">
         <f>Prices!$E$8*(Prices!$B$1*Prices!$B$2)</f>
         <v>63360</v>
       </c>
-      <c r="H12" s="114">
+      <c r="H12" s="99">
         <f>Prices!$E$8*(Prices!$B$1*Prices!$B$2)</f>
         <v>63360</v>
       </c>
-      <c r="I12" s="114">
+      <c r="I12" s="99">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)</f>
         <v>42240</v>
       </c>
-      <c r="J12" s="114">
+      <c r="J12" s="99">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)</f>
         <v>42240</v>
       </c>
-      <c r="K12" s="114">
+      <c r="K12" s="99">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)</f>
         <v>42240</v>
       </c>
-      <c r="L12" s="114">
+      <c r="L12" s="99">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)/3</f>
         <v>14080</v>
       </c>
-      <c r="M12" s="124">
+      <c r="M12" s="109">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)/3</f>
         <v>14080</v>
       </c>
-      <c r="N12" s="124">
+      <c r="N12" s="109">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)/3</f>
         <v>14080</v>
       </c>
-      <c r="O12" s="125">
+      <c r="O12" s="110">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)/3</f>
         <v>14080</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="19">
         <v>0</v>
@@ -2933,7 +2946,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="19">
         <v>0</v>
@@ -2967,11 +2980,11 @@
         <f>Prices!$E$7*(Prices!$B$5*Prices!$B$6)</f>
         <v>25600</v>
       </c>
-      <c r="K14" s="74">
+      <c r="K14" s="64">
         <f>Prices!$E$7*(Prices!$B$5*Prices!$B$6)</f>
         <v>25600</v>
       </c>
-      <c r="L14" s="78">
+      <c r="L14" s="68">
         <f>Prices!$E$7*(Prices!$B$5*Prices!$B$6)</f>
         <v>25600</v>
       </c>
@@ -2999,15 +3012,15 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="79"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="69"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="22"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="21">
         <v>0</v>
@@ -3036,10 +3049,10 @@
       <c r="J16" s="21">
         <v>1000</v>
       </c>
-      <c r="K16" s="75">
+      <c r="K16" s="65">
         <v>300</v>
       </c>
-      <c r="L16" s="79">
+      <c r="L16" s="69">
         <v>300</v>
       </c>
       <c r="M16" s="21">
@@ -3054,7 +3067,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="21">
         <v>0</v>
@@ -3083,10 +3096,10 @@
       <c r="J17" s="21">
         <v>0</v>
       </c>
-      <c r="K17" s="75">
+      <c r="K17" s="65">
         <v>200</v>
       </c>
-      <c r="L17" s="79">
+      <c r="L17" s="69">
         <v>0</v>
       </c>
       <c r="M17" s="21">
@@ -3110,71 +3123,71 @@
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="80"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="70"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="24"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="25">
-        <f t="shared" ref="B19:K19" si="5">SUM(B10:B18)</f>
+        <f t="shared" ref="B19:K19" si="6">SUM(B10:B18)</f>
         <v>42240</v>
       </c>
       <c r="C19" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42240</v>
       </c>
       <c r="D19" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42240</v>
       </c>
       <c r="E19" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>105600</v>
       </c>
       <c r="F19" s="25">
-        <f t="shared" si="5"/>
-        <v>155823.20000000001</v>
+        <f t="shared" si="6"/>
+        <v>156063.20000000001</v>
       </c>
       <c r="G19" s="25">
-        <f t="shared" si="5"/>
-        <v>110177.2</v>
+        <f t="shared" si="6"/>
+        <v>110217.2</v>
       </c>
       <c r="H19" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>108460</v>
       </c>
       <c r="I19" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>87340</v>
       </c>
       <c r="J19" s="25">
-        <f t="shared" si="5"/>
-        <v>97143.2</v>
-      </c>
-      <c r="K19" s="82">
-        <f t="shared" si="5"/>
-        <v>99463.6</v>
+        <f t="shared" si="6"/>
+        <v>97383.2</v>
+      </c>
+      <c r="K19" s="72">
+        <f t="shared" si="6"/>
+        <v>99983.6</v>
       </c>
       <c r="L19" s="25">
-        <f t="shared" ref="L19:O19" si="6">SUM(L10:L18)</f>
+        <f t="shared" ref="L19:O19" si="7">SUM(L10:L18)</f>
         <v>59180</v>
       </c>
       <c r="M19" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>59180</v>
       </c>
       <c r="N19" s="25">
-        <f t="shared" si="6"/>
-        <v>68983.199999999997</v>
+        <f t="shared" si="7"/>
+        <v>69223.199999999997</v>
       </c>
       <c r="O19" s="26">
-        <f t="shared" si="6"/>
-        <v>76806.8</v>
+        <f t="shared" si="7"/>
+        <v>77566.8</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -3188,7 +3201,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="69"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -3196,63 +3209,63 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="9">
         <f>B8-B19</f>
         <v>-42240</v>
       </c>
       <c r="C21" s="9">
-        <f>B21+C8-C19</f>
+        <f t="shared" ref="C21:O21" si="8">B21+C8-C19</f>
         <v>-84480</v>
       </c>
       <c r="D21" s="9">
-        <f>C21+D8-D19</f>
+        <f t="shared" si="8"/>
         <v>-126720</v>
       </c>
       <c r="E21" s="9">
-        <f>D21+E8-E19</f>
+        <f t="shared" si="8"/>
         <v>-232320</v>
       </c>
       <c r="F21" s="9">
-        <f>E21+F8-F19</f>
-        <v>-388143.2</v>
+        <f t="shared" si="8"/>
+        <v>-388383.2</v>
       </c>
       <c r="G21" s="9">
-        <f>F21+G8-G19</f>
-        <v>-393320.4</v>
+        <f t="shared" si="8"/>
+        <v>-393600.4</v>
       </c>
       <c r="H21" s="9">
-        <f>G21+H8-H19</f>
-        <v>-501780.4</v>
+        <f t="shared" si="8"/>
+        <v>-502060.4</v>
       </c>
       <c r="I21" s="9">
-        <f>H21+I8-I19</f>
-        <v>-589120.4</v>
+        <f t="shared" si="8"/>
+        <v>-589400.4</v>
       </c>
       <c r="J21" s="9">
-        <f>I21+J8-J19</f>
-        <v>-686263.6</v>
-      </c>
-      <c r="K21" s="83">
-        <f>J21+K8-K19</f>
-        <v>-590727.19999999995</v>
+        <f t="shared" si="8"/>
+        <v>-686783.6</v>
+      </c>
+      <c r="K21" s="73">
+        <f t="shared" si="8"/>
+        <v>-591767.19999999995</v>
       </c>
       <c r="L21" s="9">
-        <f>K21+L8-L19</f>
-        <v>-649907.19999999995</v>
+        <f t="shared" si="8"/>
+        <v>-650947.19999999995</v>
       </c>
       <c r="M21" s="9">
-        <f>L21+M8-M19</f>
-        <v>-709087.2</v>
+        <f t="shared" si="8"/>
+        <v>-710127.2</v>
       </c>
       <c r="N21" s="9">
-        <f>M21+N8-N19</f>
-        <v>-778070.39999999991</v>
+        <f t="shared" si="8"/>
+        <v>-779350.39999999991</v>
       </c>
       <c r="O21" s="10">
-        <f>N21+O8-O19</f>
-        <v>-569877.19999999995</v>
+        <f t="shared" si="8"/>
+        <v>-571917.19999999995</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -3278,18 +3291,18 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B21:K21">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:O21">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3318,81 +3331,81 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="50">
+        <v>1</v>
+      </c>
+      <c r="B1" s="118">
         <v>2021</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51">
+      <c r="C1" s="118"/>
+      <c r="D1" s="119">
         <v>2022</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="95">
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="126">
         <v>2023</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="65">
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="113">
         <v>2024</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="66"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="114"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="E2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="37" t="s">
+      <c r="H2" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="J2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="K2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="101" t="s">
+      <c r="L2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="N2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="O2" s="38" t="s">
         <v>6</v>
-      </c>
-      <c r="K2" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="38" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -3412,16 +3425,16 @@
       <c r="G3" s="7">
         <v>5</v>
       </c>
-      <c r="H3" s="102">
-        <v>0</v>
-      </c>
-      <c r="I3" s="91">
+      <c r="H3" s="87">
+        <v>0</v>
+      </c>
+      <c r="I3" s="79">
         <v>0</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
       </c>
-      <c r="K3" s="69">
+      <c r="K3" s="59">
         <v>0</v>
       </c>
       <c r="L3" s="4">
@@ -3439,7 +3452,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="11">
         <f>B3</f>
@@ -3465,16 +3478,16 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="H4" s="103">
-        <v>0</v>
-      </c>
-      <c r="I4" s="96">
+      <c r="H4" s="88">
+        <v>0</v>
+      </c>
+      <c r="I4" s="81">
         <v>0</v>
       </c>
       <c r="J4" s="11">
         <v>0</v>
       </c>
-      <c r="K4" s="70">
+      <c r="K4" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3497,26 +3510,26 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
-      <c r="B5" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="55"/>
+      <c r="B5" s="115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="117"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B6" s="27">
         <v>0</v>
@@ -3535,16 +3548,16 @@
         <f>Prices!$B$7*G4</f>
         <v>105000</v>
       </c>
-      <c r="H6" s="104">
-        <v>0</v>
-      </c>
-      <c r="I6" s="97">
+      <c r="H6" s="89">
+        <v>0</v>
+      </c>
+      <c r="I6" s="82">
         <v>0</v>
       </c>
       <c r="J6" s="27">
         <v>0</v>
       </c>
-      <c r="K6" s="71">
+      <c r="K6" s="61">
         <f>Prices!$B$7*K4</f>
         <v>0</v>
       </c>
@@ -3570,10 +3583,10 @@
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="30"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="98"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="83"/>
       <c r="J7" s="29"/>
-      <c r="K7" s="72"/>
+      <c r="K7" s="62"/>
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
@@ -3581,87 +3594,87 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="31">
-        <f>SUM(B6:B6)</f>
+        <f t="shared" ref="B8:O8" si="1">SUM(B6:B6)</f>
         <v>0</v>
       </c>
       <c r="C8" s="31">
-        <f>SUM(C6:C6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D8" s="31">
-        <f>SUM(D6:D6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E8" s="31">
-        <f>SUM(E6:E6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8" s="31">
-        <f>SUM(F6:F6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G8" s="32">
-        <f>SUM(G6:G6)</f>
+        <f t="shared" si="1"/>
         <v>105000</v>
       </c>
-      <c r="H8" s="106">
-        <f>SUM(H6:H6)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="99">
-        <f>SUM(I6:I6)</f>
+      <c r="H8" s="91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="84">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J8" s="31">
-        <f>SUM(J6:J6)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="81">
-        <f>SUM(K6:K6)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="71">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L8" s="31">
-        <f>SUM(L6:L6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M8" s="31">
-        <f>SUM(M6:M6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N8" s="31">
-        <f>SUM(N6:N6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O8" s="32">
-        <f>SUM(O6:O6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="55"/>
+      <c r="B9" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="117"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B10" s="17">
         <f>Prices!$B$10*B3</f>
@@ -3681,17 +3694,17 @@
       </c>
       <c r="F10" s="17">
         <f>Prices!$B$10*F3</f>
-        <v>9103.2000000000007</v>
+        <v>9343.2000000000007</v>
       </c>
       <c r="G10" s="18">
         <f>Prices!$B$10*G3</f>
-        <v>1517.2000000000003</v>
-      </c>
-      <c r="H10" s="107">
+        <v>1557.2000000000003</v>
+      </c>
+      <c r="H10" s="92">
         <f>Prices!$B$10*H3</f>
         <v>0</v>
       </c>
-      <c r="I10" s="86">
+      <c r="I10" s="74">
         <f>Prices!$B$10*I3</f>
         <v>0</v>
       </c>
@@ -3699,11 +3712,11 @@
         <f>Prices!$B$10*J3</f>
         <v>0</v>
       </c>
-      <c r="K10" s="73">
+      <c r="K10" s="63">
         <f>Prices!$B$10*K3</f>
         <v>0</v>
       </c>
-      <c r="L10" s="77">
+      <c r="L10" s="67">
         <f>Prices!$B$10*L3</f>
         <v>0</v>
       </c>
@@ -3721,55 +3734,55 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="113" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="114">
-        <v>0</v>
-      </c>
-      <c r="C11" s="114">
-        <v>0</v>
-      </c>
-      <c r="D11" s="114">
-        <v>0</v>
-      </c>
-      <c r="E11" s="114">
-        <v>0</v>
-      </c>
-      <c r="F11" s="114">
-        <v>0</v>
-      </c>
-      <c r="G11" s="117">
-        <v>0</v>
-      </c>
-      <c r="H11" s="126">
-        <v>0</v>
-      </c>
-      <c r="I11" s="116">
-        <v>0</v>
-      </c>
-      <c r="J11" s="114">
-        <v>0</v>
-      </c>
-      <c r="K11" s="115">
-        <v>0</v>
-      </c>
-      <c r="L11" s="116">
-        <v>0</v>
-      </c>
-      <c r="M11" s="114">
-        <v>0</v>
-      </c>
-      <c r="N11" s="114">
-        <v>0</v>
-      </c>
-      <c r="O11" s="117">
+      <c r="A11" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="99">
+        <v>0</v>
+      </c>
+      <c r="C11" s="99">
+        <v>0</v>
+      </c>
+      <c r="D11" s="99">
+        <v>0</v>
+      </c>
+      <c r="E11" s="99">
+        <v>0</v>
+      </c>
+      <c r="F11" s="99">
+        <v>0</v>
+      </c>
+      <c r="G11" s="102">
+        <v>0</v>
+      </c>
+      <c r="H11" s="111">
+        <v>0</v>
+      </c>
+      <c r="I11" s="101">
+        <v>0</v>
+      </c>
+      <c r="J11" s="99">
+        <v>0</v>
+      </c>
+      <c r="K11" s="100">
+        <v>0</v>
+      </c>
+      <c r="L11" s="101">
+        <v>0</v>
+      </c>
+      <c r="M11" s="99">
+        <v>0</v>
+      </c>
+      <c r="N11" s="99">
+        <v>0</v>
+      </c>
+      <c r="O11" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="19">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)</f>
@@ -3795,11 +3808,11 @@
         <f>Prices!$E$8*(Prices!$B$1*Prices!$B$2)</f>
         <v>63360</v>
       </c>
-      <c r="H12" s="108">
+      <c r="H12" s="93">
         <f>Prices!$E$8*(Prices!$B$1*Prices!$B$2)</f>
         <v>63360</v>
       </c>
-      <c r="I12" s="87">
+      <c r="I12" s="75">
         <v>0</v>
       </c>
       <c r="J12" s="19">
@@ -3823,7 +3836,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="19">
         <v>0</v>
@@ -3845,11 +3858,11 @@
         <f>Prices!$E$7*(Prices!$B$3*Prices!$B$4)</f>
         <v>19200</v>
       </c>
-      <c r="H13" s="108">
+      <c r="H13" s="93">
         <f>Prices!$E$7*(Prices!$B$3*Prices!$B$4)</f>
         <v>19200</v>
       </c>
-      <c r="I13" s="87">
+      <c r="I13" s="75">
         <v>0</v>
       </c>
       <c r="J13" s="19">
@@ -3873,7 +3886,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="19">
         <v>0</v>
@@ -3895,20 +3908,20 @@
         <f>Prices!$E$7*(Prices!$B$5*Prices!$B$6)</f>
         <v>25600</v>
       </c>
-      <c r="H14" s="108">
+      <c r="H14" s="93">
         <f>Prices!$E$7*(Prices!$B$5*Prices!$B$6)</f>
         <v>25600</v>
       </c>
-      <c r="I14" s="87">
+      <c r="I14" s="75">
         <v>0</v>
       </c>
       <c r="J14" s="19">
         <v>0</v>
       </c>
-      <c r="K14" s="74">
-        <v>0</v>
-      </c>
-      <c r="L14" s="78">
+      <c r="K14" s="64">
+        <v>0</v>
+      </c>
+      <c r="L14" s="68">
         <v>0</v>
       </c>
       <c r="M14" s="19">
@@ -3929,18 +3942,18 @@
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="88"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="76"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="79"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="69"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="22"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="21">
         <v>0</v>
@@ -3960,19 +3973,19 @@
       <c r="G16" s="22">
         <v>300</v>
       </c>
-      <c r="H16" s="109">
+      <c r="H16" s="94">
         <v>300</v>
       </c>
-      <c r="I16" s="88">
+      <c r="I16" s="76">
         <v>0</v>
       </c>
       <c r="J16" s="21">
         <v>0</v>
       </c>
-      <c r="K16" s="75">
-        <v>0</v>
-      </c>
-      <c r="L16" s="79">
+      <c r="K16" s="65">
+        <v>0</v>
+      </c>
+      <c r="L16" s="69">
         <v>0</v>
       </c>
       <c r="M16" s="21">
@@ -3987,7 +4000,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="21">
         <v>0</v>
@@ -4007,19 +4020,19 @@
       <c r="G17" s="22">
         <v>200</v>
       </c>
-      <c r="H17" s="109">
-        <v>0</v>
-      </c>
-      <c r="I17" s="88">
+      <c r="H17" s="94">
+        <v>0</v>
+      </c>
+      <c r="I17" s="76">
         <v>0</v>
       </c>
       <c r="J17" s="21">
         <v>0</v>
       </c>
-      <c r="K17" s="75">
-        <v>0</v>
-      </c>
-      <c r="L17" s="79">
+      <c r="K17" s="65">
+        <v>0</v>
+      </c>
+      <c r="L17" s="69">
         <v>0</v>
       </c>
       <c r="M17" s="21">
@@ -4040,73 +4053,73 @@
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="24"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="89"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="77"/>
       <c r="J18" s="23"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="80"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="70"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="24"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="25">
-        <f t="shared" ref="B19:O19" si="1">SUM(B10:B18)</f>
+        <f t="shared" ref="B19:O19" si="2">SUM(B10:B18)</f>
         <v>42240</v>
       </c>
       <c r="C19" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42240</v>
       </c>
       <c r="D19" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42240</v>
       </c>
       <c r="E19" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>105600</v>
       </c>
       <c r="F19" s="25">
-        <f t="shared" si="1"/>
-        <v>155823.20000000001</v>
+        <f t="shared" si="2"/>
+        <v>156063.20000000001</v>
       </c>
       <c r="G19" s="26">
-        <f t="shared" si="1"/>
-        <v>110177.2</v>
-      </c>
-      <c r="H19" s="111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>110217.2</v>
+      </c>
+      <c r="H19" s="96">
+        <f t="shared" si="2"/>
         <v>108460</v>
       </c>
-      <c r="I19" s="90">
-        <f t="shared" si="1"/>
+      <c r="I19" s="78">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J19" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="72">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L19" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M19" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N19" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O19" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4118,10 +4131,10 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="91"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="79"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="69"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -4129,74 +4142,74 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="9">
         <f>B8-B19</f>
         <v>-42240</v>
       </c>
       <c r="C21" s="9">
-        <f t="shared" ref="C21:O21" si="2">B21+C8-C19</f>
+        <f t="shared" ref="C21:O21" si="3">B21+C8-C19</f>
         <v>-84480</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-126720</v>
       </c>
       <c r="E21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-232320</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" si="2"/>
-        <v>-388143.2</v>
+        <f t="shared" si="3"/>
+        <v>-388383.2</v>
       </c>
       <c r="G21" s="10">
-        <f t="shared" si="2"/>
-        <v>-393320.4</v>
-      </c>
-      <c r="H21" s="112">
-        <f t="shared" si="2"/>
-        <v>-501780.4</v>
-      </c>
-      <c r="I21" s="92">
-        <f t="shared" si="2"/>
-        <v>-501780.4</v>
+        <f t="shared" si="3"/>
+        <v>-393600.4</v>
+      </c>
+      <c r="H21" s="97">
+        <f t="shared" si="3"/>
+        <v>-502060.4</v>
+      </c>
+      <c r="I21" s="80">
+        <f t="shared" si="3"/>
+        <v>-502060.4</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" si="2"/>
-        <v>-501780.4</v>
-      </c>
-      <c r="K21" s="83">
-        <f t="shared" si="2"/>
-        <v>-501780.4</v>
+        <f t="shared" si="3"/>
+        <v>-502060.4</v>
+      </c>
+      <c r="K21" s="73">
+        <f t="shared" si="3"/>
+        <v>-502060.4</v>
       </c>
       <c r="L21" s="9">
-        <f t="shared" si="2"/>
-        <v>-501780.4</v>
+        <f t="shared" si="3"/>
+        <v>-502060.4</v>
       </c>
       <c r="M21" s="9">
-        <f t="shared" si="2"/>
-        <v>-501780.4</v>
+        <f t="shared" si="3"/>
+        <v>-502060.4</v>
       </c>
       <c r="N21" s="9">
-        <f t="shared" si="2"/>
-        <v>-501780.4</v>
+        <f t="shared" si="3"/>
+        <v>-502060.4</v>
       </c>
       <c r="O21" s="10">
-        <f t="shared" si="2"/>
-        <v>-501780.4</v>
+        <f t="shared" si="3"/>
+        <v>-502060.4</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
       <c r="F22" s="47"/>
-      <c r="G22" s="84" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="93" t="s">
-        <v>73</v>
+      <c r="G22" s="122" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="124" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -4204,8 +4217,8 @@
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
       <c r="F23" s="47"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="94"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="125"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
@@ -4219,28 +4232,28 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B9:O9"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B9:O9"/>
   </mergeCells>
   <conditionalFormatting sqref="B21:K21">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:O21">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4252,7 +4265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D535B8-5E7C-4889-B40D-505D8DFD2E03}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -4268,81 +4281,81 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="50">
+        <v>1</v>
+      </c>
+      <c r="B1" s="118">
         <v>2021</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51">
+      <c r="C1" s="118"/>
+      <c r="D1" s="119">
         <v>2022</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="52">
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="120">
         <v>2023</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="65">
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="113">
         <v>2024</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="66"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="114"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="E2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="37" t="s">
+      <c r="H2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="J2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="K2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="37" t="s">
+      <c r="L2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="N2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="O2" s="38" t="s">
         <v>6</v>
-      </c>
-      <c r="K2" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="38" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -4371,7 +4384,7 @@
       <c r="J3" s="4">
         <v>90</v>
       </c>
-      <c r="K3" s="69">
+      <c r="K3" s="59">
         <v>15</v>
       </c>
       <c r="L3" s="4">
@@ -4389,7 +4402,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="11">
         <f>B3</f>
@@ -4427,7 +4440,7 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="K4" s="70">
+      <c r="K4" s="60">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
@@ -4450,26 +4463,26 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
-      <c r="B5" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="55"/>
+      <c r="B5" s="115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="117"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B6" s="27">
         <v>0</v>
@@ -4497,7 +4510,7 @@
       <c r="J6" s="27">
         <v>0</v>
       </c>
-      <c r="K6" s="71">
+      <c r="K6" s="61">
         <f>Prices!$B$7*K4</f>
         <v>420000</v>
       </c>
@@ -4526,7 +4539,7 @@
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
-      <c r="K7" s="72"/>
+      <c r="K7" s="62"/>
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
@@ -4534,258 +4547,258 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="31">
-        <f>SUM(B6:B6)</f>
+        <f t="shared" ref="B8:O8" si="1">SUM(B6:B6)</f>
         <v>0</v>
       </c>
       <c r="C8" s="31">
-        <f>SUM(C6:C6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D8" s="31">
-        <f>SUM(D6:D6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E8" s="31">
-        <f>SUM(E6:E6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F8" s="31">
-        <f>SUM(F6:F6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G8" s="31">
-        <f>SUM(G6:G6)</f>
+        <f t="shared" si="1"/>
         <v>105000</v>
       </c>
       <c r="H8" s="31">
-        <f>SUM(H6:H6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="31">
-        <f>SUM(I6:I6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J8" s="31">
-        <f>SUM(J6:J6)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="81">
-        <f>SUM(K6:K6)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="71">
+        <f t="shared" si="1"/>
         <v>420000</v>
       </c>
       <c r="L8" s="31">
-        <f>SUM(L6:L6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M8" s="31">
-        <f>SUM(M6:M6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N8" s="31">
-        <f>SUM(N6:N6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O8" s="32">
-        <f>SUM(O6:O6)</f>
+        <f t="shared" si="1"/>
         <v>600000</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="55"/>
+      <c r="B9" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="117"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="118">
+        <v>65</v>
+      </c>
+      <c r="B10" s="103">
         <f>Prices!$B$10*B3</f>
         <v>0</v>
       </c>
-      <c r="C10" s="118">
+      <c r="C10" s="103">
         <f>Prices!$B$10*C3</f>
         <v>0</v>
       </c>
-      <c r="D10" s="118">
+      <c r="D10" s="103">
         <f>Prices!$B$10*D3</f>
         <v>0</v>
       </c>
-      <c r="E10" s="118">
+      <c r="E10" s="103">
         <f>Prices!$B$10*E3</f>
         <v>0</v>
       </c>
-      <c r="F10" s="118">
+      <c r="F10" s="103">
         <f>Prices!$B$10*F3</f>
-        <v>9103.2000000000007</v>
-      </c>
-      <c r="G10" s="118">
+        <v>9343.2000000000007</v>
+      </c>
+      <c r="G10" s="103">
         <f>Prices!$B$10*G3</f>
-        <v>1517.2000000000003</v>
-      </c>
-      <c r="H10" s="118">
+        <v>1557.2000000000003</v>
+      </c>
+      <c r="H10" s="103">
         <f>Prices!$B$10*H3</f>
         <v>0</v>
       </c>
-      <c r="I10" s="118">
+      <c r="I10" s="103">
         <f>Prices!$B$10*I3</f>
         <v>0</v>
       </c>
-      <c r="J10" s="118">
+      <c r="J10" s="103">
         <f>Prices!$B$10*J3</f>
-        <v>27309.600000000006</v>
-      </c>
-      <c r="K10" s="119">
+        <v>28029.600000000006</v>
+      </c>
+      <c r="K10" s="104">
         <f>Prices!$B$10*K3</f>
-        <v>4551.6000000000004</v>
-      </c>
-      <c r="L10" s="120">
+        <v>4671.6000000000004</v>
+      </c>
+      <c r="L10" s="105">
         <f>Prices!$B$10*L3</f>
         <v>0</v>
       </c>
-      <c r="M10" s="118">
+      <c r="M10" s="103">
         <f>Prices!$B$10*M3</f>
         <v>0</v>
       </c>
-      <c r="N10" s="118">
+      <c r="N10" s="103">
         <f>Prices!$B$10*N3</f>
-        <v>18206.400000000001</v>
-      </c>
-      <c r="O10" s="121">
+        <v>18686.400000000001</v>
+      </c>
+      <c r="O10" s="106">
         <f>Prices!$B$10*O3</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="113" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="122">
-        <v>0</v>
-      </c>
-      <c r="C11" s="122">
-        <v>0</v>
-      </c>
-      <c r="D11" s="122">
-        <v>0</v>
-      </c>
-      <c r="E11" s="122">
-        <v>0</v>
-      </c>
-      <c r="F11" s="122">
-        <v>0</v>
-      </c>
-      <c r="G11" s="122">
-        <v>0</v>
-      </c>
-      <c r="H11" s="122">
-        <v>0</v>
-      </c>
-      <c r="I11" s="122">
-        <v>0</v>
-      </c>
-      <c r="J11" s="122">
-        <v>0</v>
-      </c>
-      <c r="K11" s="122">
+      <c r="A11" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="107">
+        <v>0</v>
+      </c>
+      <c r="C11" s="107">
+        <v>0</v>
+      </c>
+      <c r="D11" s="107">
+        <v>0</v>
+      </c>
+      <c r="E11" s="107">
+        <v>0</v>
+      </c>
+      <c r="F11" s="107">
+        <v>0</v>
+      </c>
+      <c r="G11" s="107">
+        <v>0</v>
+      </c>
+      <c r="H11" s="107">
+        <v>0</v>
+      </c>
+      <c r="I11" s="107">
+        <v>0</v>
+      </c>
+      <c r="J11" s="107">
+        <v>0</v>
+      </c>
+      <c r="K11" s="107">
         <f>Prices!$B$8*'Base case'!K4</f>
-        <v>11923.600000000002</v>
-      </c>
-      <c r="L11" s="122">
-        <v>0</v>
-      </c>
-      <c r="M11" s="122">
-        <v>0</v>
-      </c>
-      <c r="N11" s="122">
-        <v>0</v>
-      </c>
-      <c r="O11" s="123">
+        <v>12443.600000000002</v>
+      </c>
+      <c r="L11" s="107">
+        <v>0</v>
+      </c>
+      <c r="M11" s="107">
+        <v>0</v>
+      </c>
+      <c r="N11" s="107">
+        <v>0</v>
+      </c>
+      <c r="O11" s="108">
         <f>Prices!$B$8*'Base case'!O4</f>
-        <v>17426.800000000003</v>
+        <v>18186.800000000003</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="114">
+        <v>19</v>
+      </c>
+      <c r="B12" s="99">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)</f>
         <v>42240</v>
       </c>
-      <c r="C12" s="114">
+      <c r="C12" s="99">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)</f>
         <v>42240</v>
       </c>
-      <c r="D12" s="114">
+      <c r="D12" s="99">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)</f>
         <v>42240</v>
       </c>
-      <c r="E12" s="114">
+      <c r="E12" s="99">
         <f>Prices!$E$7*(Prices!$B$1*Prices!$B$2)</f>
         <v>105600</v>
       </c>
-      <c r="F12" s="114">
+      <c r="F12" s="99">
         <f>Prices!$E$7*(Prices!$B$1*Prices!$B$2)</f>
         <v>105600</v>
       </c>
-      <c r="G12" s="114">
+      <c r="G12" s="99">
         <f>Prices!$E$8*(Prices!$B$1*Prices!$B$2)</f>
         <v>63360</v>
       </c>
-      <c r="H12" s="114">
+      <c r="H12" s="99">
         <f>Prices!$E$8*(Prices!$B$1*Prices!$B$2)</f>
         <v>63360</v>
       </c>
-      <c r="I12" s="114">
+      <c r="I12" s="99">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)</f>
         <v>42240</v>
       </c>
-      <c r="J12" s="114">
+      <c r="J12" s="99">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)</f>
         <v>42240</v>
       </c>
-      <c r="K12" s="114">
+      <c r="K12" s="99">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)</f>
         <v>42240</v>
       </c>
-      <c r="L12" s="114">
+      <c r="L12" s="99">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)/3</f>
         <v>14080</v>
       </c>
-      <c r="M12" s="124">
+      <c r="M12" s="109">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)/3</f>
         <v>14080</v>
       </c>
-      <c r="N12" s="124">
+      <c r="N12" s="109">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)/3</f>
         <v>14080</v>
       </c>
-      <c r="O12" s="125">
+      <c r="O12" s="110">
         <f>Prices!$E$5*(Prices!$B$1*Prices!$B$2)/3</f>
         <v>14080</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="19">
         <v>0</v>
@@ -4842,7 +4855,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="19">
         <v>0</v>
@@ -4876,11 +4889,11 @@
         <f>Prices!$E$7*(Prices!$B$5*Prices!$B$6)</f>
         <v>25600</v>
       </c>
-      <c r="K14" s="74">
+      <c r="K14" s="64">
         <f>Prices!$E$7*(Prices!$B$5*Prices!$B$6)</f>
         <v>25600</v>
       </c>
-      <c r="L14" s="78">
+      <c r="L14" s="68">
         <f>Prices!$E$7*(Prices!$B$5*Prices!$B$6)</f>
         <v>25600</v>
       </c>
@@ -4908,15 +4921,15 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="79"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="69"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="22"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="21">
         <v>0</v>
@@ -4945,10 +4958,10 @@
       <c r="J16" s="21">
         <v>1000</v>
       </c>
-      <c r="K16" s="75">
+      <c r="K16" s="65">
         <v>300</v>
       </c>
-      <c r="L16" s="79">
+      <c r="L16" s="69">
         <v>300</v>
       </c>
       <c r="M16" s="21">
@@ -4963,7 +4976,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="21">
         <v>0</v>
@@ -4992,10 +5005,10 @@
       <c r="J17" s="21">
         <v>0</v>
       </c>
-      <c r="K17" s="75">
+      <c r="K17" s="65">
         <v>200</v>
       </c>
-      <c r="L17" s="79">
+      <c r="L17" s="69">
         <v>0</v>
       </c>
       <c r="M17" s="21">
@@ -5019,71 +5032,71 @@
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="80"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="70"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="24"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="25">
-        <f t="shared" ref="B19:O19" si="1">SUM(B10:B18)</f>
+        <f t="shared" ref="B19:O19" si="2">SUM(B10:B18)</f>
         <v>42240</v>
       </c>
       <c r="C19" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42240</v>
       </c>
       <c r="D19" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42240</v>
       </c>
       <c r="E19" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>105600</v>
       </c>
       <c r="F19" s="25">
-        <f t="shared" si="1"/>
-        <v>155823.20000000001</v>
+        <f t="shared" si="2"/>
+        <v>156063.20000000001</v>
       </c>
       <c r="G19" s="25">
-        <f t="shared" si="1"/>
-        <v>110177.2</v>
+        <f t="shared" si="2"/>
+        <v>110217.2</v>
       </c>
       <c r="H19" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>108460</v>
       </c>
       <c r="I19" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87340</v>
       </c>
       <c r="J19" s="25">
-        <f t="shared" si="1"/>
-        <v>115349.6</v>
-      </c>
-      <c r="K19" s="82">
-        <f t="shared" si="1"/>
-        <v>104015.20000000001</v>
+        <f t="shared" si="2"/>
+        <v>116069.6</v>
+      </c>
+      <c r="K19" s="72">
+        <f t="shared" si="2"/>
+        <v>104655.20000000001</v>
       </c>
       <c r="L19" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59180</v>
       </c>
       <c r="M19" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59180</v>
       </c>
       <c r="N19" s="25">
-        <f t="shared" si="1"/>
-        <v>78086.399999999994</v>
+        <f t="shared" si="2"/>
+        <v>78566.399999999994</v>
       </c>
       <c r="O19" s="26">
-        <f t="shared" si="1"/>
-        <v>76806.8</v>
+        <f t="shared" si="2"/>
+        <v>77566.8</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -5097,7 +5110,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="69"/>
+      <c r="K20" s="59"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -5105,63 +5118,63 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="9">
         <f>B8-B19</f>
         <v>-42240</v>
       </c>
       <c r="C21" s="9">
-        <f>B21+C8-C19</f>
+        <f t="shared" ref="C21:O21" si="3">B21+C8-C19</f>
         <v>-84480</v>
       </c>
       <c r="D21" s="9">
-        <f>C21+D8-D19</f>
+        <f t="shared" si="3"/>
         <v>-126720</v>
       </c>
       <c r="E21" s="9">
-        <f>D21+E8-E19</f>
+        <f t="shared" si="3"/>
         <v>-232320</v>
       </c>
       <c r="F21" s="9">
-        <f>E21+F8-F19</f>
-        <v>-388143.2</v>
+        <f t="shared" si="3"/>
+        <v>-388383.2</v>
       </c>
       <c r="G21" s="9">
-        <f>F21+G8-G19</f>
-        <v>-393320.4</v>
+        <f t="shared" si="3"/>
+        <v>-393600.4</v>
       </c>
       <c r="H21" s="9">
-        <f>G21+H8-H19</f>
-        <v>-501780.4</v>
+        <f t="shared" si="3"/>
+        <v>-502060.4</v>
       </c>
       <c r="I21" s="9">
-        <f>H21+I8-I19</f>
-        <v>-589120.4</v>
+        <f t="shared" si="3"/>
+        <v>-589400.4</v>
       </c>
       <c r="J21" s="9">
-        <f>I21+J8-J19</f>
-        <v>-704470</v>
-      </c>
-      <c r="K21" s="83">
-        <f>J21+K8-K19</f>
-        <v>-388485.2</v>
+        <f t="shared" si="3"/>
+        <v>-705470</v>
+      </c>
+      <c r="K21" s="73">
+        <f t="shared" si="3"/>
+        <v>-390125.2</v>
       </c>
       <c r="L21" s="9">
-        <f>K21+L8-L19</f>
-        <v>-447665.2</v>
+        <f t="shared" si="3"/>
+        <v>-449305.2</v>
       </c>
       <c r="M21" s="9">
-        <f>L21+M8-M19</f>
-        <v>-506845.2</v>
+        <f t="shared" si="3"/>
+        <v>-508485.2</v>
       </c>
       <c r="N21" s="9">
-        <f>M21+N8-N19</f>
-        <v>-584931.6</v>
+        <f t="shared" si="3"/>
+        <v>-587051.6</v>
       </c>
       <c r="O21" s="10">
-        <f>N21+O8-O19</f>
-        <v>-61738.39999999998</v>
+        <f t="shared" si="3"/>
+        <v>-64618.39999999998</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -5178,12 +5191,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B9:O9"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B9:O9"/>
   </mergeCells>
   <conditionalFormatting sqref="B21:K21">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">

--- a/0000_Docs/0004_Business/Budget.xlsx
+++ b/0000_Docs/0004_Business/Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\LoRaSnow\0000_Docs\0004_Business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF0FF25-F789-4826-B76E-F2B0B96B7168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF47D62-2EE2-4DC5-BDD6-B4BCE1FF5C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
   <si>
     <t>Engineers</t>
   </si>
@@ -184,12 +184,6 @@
   </si>
   <si>
     <t>Sensor</t>
-  </si>
-  <si>
-    <t>https://fr.aliexpress.com/item/32490029085.html</t>
-  </si>
-  <si>
-    <t>https://www.distrelec.ch/fr/capteur-de-distance-optique-garmin-lidar-lite-v4-led-sparkfun-electronics-sen-15776/p/30165189?ext_cid=shgooaqchfr-P-Shopping-Fallback&amp;pi=30165189&amp;gclid=EAIaIQobChMIssmlouzF9QIV-ZBoCR0oFwMoEAQYAiABEgJsrfD_BwE</t>
   </si>
   <si>
     <t>Batteries 6x</t>
@@ -1461,6 +1455,10 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1506,10 +1504,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="71" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -1916,7 +1910,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,10 +1997,10 @@
         <v>45</v>
       </c>
       <c r="J3" s="46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L3" s="42" t="s">
         <v>39</v>
@@ -2034,7 +2028,7 @@
         <v>10000</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J4" s="47">
         <f>1.6*1000</f>
@@ -2105,7 +2099,7 @@
         <v>8000</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J6" s="47">
         <v>1000</v>
@@ -2120,7 +2114,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1">
         <v>3000</v>
@@ -2140,7 +2134,7 @@
         <v>5000</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J7" s="47">
         <v>1000</v>
@@ -2155,7 +2149,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1">
         <f>B22</f>
@@ -2176,7 +2170,7 @@
         <v>10000</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J8" s="48">
         <v>1000</v>
@@ -2191,7 +2185,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1">
         <v>120</v>
@@ -2204,7 +2198,7 @@
         <v>7000</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J9" s="47">
         <v>1000</v>
@@ -2219,25 +2213,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" s="2">
         <f>B8+B9</f>
         <v>311.44000000000005</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="127" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="128">
+      <c r="G10" s="112"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="113">
         <v>1000</v>
       </c>
-      <c r="K10" s="130">
+      <c r="K10" s="115">
         <v>8</v>
       </c>
-      <c r="L10" s="129">
+      <c r="L10" s="114">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
@@ -2260,13 +2254,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1">
         <v>500</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H12" s="56">
         <f>(H11+L11)/1000</f>
@@ -2275,12 +2269,12 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1">
         <f>H12</f>
@@ -2292,14 +2286,14 @@
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="112" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="112"/>
+      <c r="A17" s="116" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="116"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1">
         <v>9.8000000000000007</v>
@@ -2312,24 +2306,23 @@
       <c r="B19" s="1">
         <v>70</v>
       </c>
-      <c r="C19" s="43" t="s">
-        <v>50</v>
-      </c>
+      <c r="C19" s="43"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1">
         <v>14.52</v>
       </c>
-      <c r="C20" s="43" t="s">
-        <v>49</v>
-      </c>
+      <c r="C20" s="43"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B22" s="2">
         <f>SUM(B15:B20)</f>
@@ -2340,12 +2333,8 @@
   <mergeCells count="1">
     <mergeCell ref="A17:B17"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C20" r:id="rId1" xr:uid="{6D05AC71-CF28-437E-8630-2DD21BC9726D}"/>
-    <hyperlink ref="C19" r:id="rId2" xr:uid="{83471C07-0348-48BE-8AF9-ABEBF9306E90}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2357,7 +2346,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,28 +2363,28 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="118">
+      <c r="B1" s="122">
         <v>2021</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="119">
+      <c r="C1" s="122"/>
+      <c r="D1" s="123">
         <v>2022</v>
       </c>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="120">
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="124">
         <v>2023</v>
       </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="113">
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="117">
         <v>2024</v>
       </c>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="114"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="118"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -2554,26 +2543,26 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="117"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="121"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="27">
         <v>0</v>
@@ -2699,26 +2688,26 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="117"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="121"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="103">
         <f>Prices!$B$10*B3</f>
@@ -2779,7 +2768,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="98" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="107">
         <v>0</v>
@@ -3306,17 +3295,20 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A086E4E6-0C30-42FE-83D8-AFD770C872EF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3333,28 +3325,28 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="118">
+      <c r="B1" s="122">
         <v>2021</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="119">
+      <c r="C1" s="122"/>
+      <c r="D1" s="123">
         <v>2022</v>
       </c>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="126">
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="130">
         <v>2023</v>
       </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="113">
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="117">
         <v>2024</v>
       </c>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="114"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="118"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -3510,26 +3502,26 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="117"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="121"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="27">
         <v>0</v>
@@ -3655,26 +3647,26 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="117"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="121"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="17">
         <f>Prices!$B$10*B3</f>
@@ -3735,7 +3727,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="98" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="99">
         <v>0</v>
@@ -4205,11 +4197,11 @@
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
       <c r="F22" s="47"/>
-      <c r="G22" s="122" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="124" t="s">
-        <v>67</v>
+      <c r="G22" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="128" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -4217,8 +4209,8 @@
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
       <c r="F23" s="47"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="125"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="129"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
@@ -4257,16 +4249,20 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D535B8-5E7C-4889-B40D-505D8DFD2E03}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4283,28 +4279,28 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="118">
+      <c r="B1" s="122">
         <v>2021</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="119">
+      <c r="C1" s="122"/>
+      <c r="D1" s="123">
         <v>2022</v>
       </c>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="120">
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="124">
         <v>2023</v>
       </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="113">
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="117">
         <v>2024</v>
       </c>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="114"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="118"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -4463,26 +4459,26 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="117"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="121"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="27">
         <v>0</v>
@@ -4608,26 +4604,26 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="117"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="121"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="103">
         <f>Prices!$B$10*B3</f>
@@ -4688,7 +4684,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="98" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="107">
         <v>0</v>
@@ -5214,6 +5210,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>